--- a/9th week/Dung + Cung/SE18_BlackBoxTestCase_StaffManagement_v3.0.xlsx
+++ b/9th week/Dung + Cung/SE18_BlackBoxTestCase_StaffManagement_v3.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7320" tabRatio="821" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15396" windowHeight="7320" tabRatio="821" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="276">
   <si>
     <t>Module Code</t>
   </si>
@@ -3176,6 +3176,72 @@
   </si>
   <si>
     <t>Test case SMU01, SMU02, SMU03, SMU04, SMU05, SMU06, SMU07, SMU08, SMU09, SMU10, SMU11, SMU12, SMU13, SMU14, SMU15, SMU16, SMU17, SMU18, SMU19 passed.</t>
+  </si>
+  <si>
+    <t>SM02, SM03</t>
+  </si>
+  <si>
+    <t>SM04, SM05</t>
+  </si>
+  <si>
+    <t>SM06, SM07</t>
+  </si>
+  <si>
+    <t>SM08, SM09</t>
+  </si>
+  <si>
+    <t>SM10, SM11</t>
+  </si>
+  <si>
+    <t>SM12, SM13</t>
+  </si>
+  <si>
+    <t>SM14, SM15</t>
+  </si>
+  <si>
+    <t>SM16, SM17, SM18</t>
+  </si>
+  <si>
+    <t>SMA01, SMA02</t>
+  </si>
+  <si>
+    <t>SMA03, SMA04, SMA05, SMA06, SMA07</t>
+  </si>
+  <si>
+    <t>SMA10, SMA11, SMA12, SMA13, SMA14</t>
+  </si>
+  <si>
+    <t>SMA16, SMA17, SMA18, SMA19</t>
+  </si>
+  <si>
+    <t>SMA20, SMA21, SMA22, SMA23</t>
+  </si>
+  <si>
+    <t>SMU01 SMU02</t>
+  </si>
+  <si>
+    <t>SMU03, SMU04, SMU05, SMU06, SMU07</t>
+  </si>
+  <si>
+    <t>SMU10, SMU11, SMU12, SMU13, SMU14</t>
+  </si>
+  <si>
+    <t>SMU16, SMU17, SMU18, SMU19</t>
+  </si>
+  <si>
+    <t>SMU20, SMU21</t>
+  </si>
+  <si>
+    <t>SMT02, SMT03</t>
+  </si>
+  <si>
+    <t>SMT04, SMT05</t>
+  </si>
+  <si>
+    <t>SMT06, SMT07</t>
+  </si>
+  <si>
+    <t>SMT081 SMT09, SMT10</t>
   </si>
 </sst>
 </file>
@@ -3185,7 +3251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3314,6 +3380,12 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3711,7 +3783,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3983,6 +4055,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4017,9 +4092,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4077,8 +4150,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1828800" y="1005840"/>
-          <a:ext cx="7642860" cy="4477932"/>
+          <a:off x="1828800" y="1028700"/>
+          <a:ext cx="7642860" cy="4516032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4437,16 +4510,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4455,8 +4528,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8763000" y="2308860"/>
-          <a:ext cx="1501140" cy="868680"/>
+          <a:off x="7071360" y="2369820"/>
+          <a:ext cx="327660" cy="777240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4480,16 +4553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4498,8 +4571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10279380" y="2910840"/>
-          <a:ext cx="1234440" cy="579120"/>
+          <a:off x="6858000" y="3169920"/>
+          <a:ext cx="1234440" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4582,15 +4655,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4600,8 +4673,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1249680" y="2308860"/>
-          <a:ext cx="1775460" cy="251460"/>
+          <a:off x="5615940" y="2346960"/>
+          <a:ext cx="15240" cy="1089660"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4625,16 +4698,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4643,8 +4716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="91440" y="2446020"/>
-          <a:ext cx="1211580" cy="304800"/>
+          <a:off x="5029200" y="3436620"/>
+          <a:ext cx="1211580" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4803,6 +4876,566 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1760220" y="960120"/>
+          <a:ext cx="7780020" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="434340" y="632460"/>
+          <a:ext cx="1325880" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="845820" y="1470660"/>
+          <a:ext cx="1341120" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="891540" y="1996440"/>
+          <a:ext cx="2011680" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="861060" y="2004060"/>
+          <a:ext cx="2811780" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="868680" y="1988820"/>
+          <a:ext cx="3649980" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="830580" y="3802380"/>
+          <a:ext cx="1112520" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5913120" y="586740"/>
+          <a:ext cx="60960" cy="1379220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8031480" y="1996440"/>
+          <a:ext cx="2042160" cy="1386840"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9204960" y="2034540"/>
+          <a:ext cx="1135380" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1943100" y="2133600"/>
+          <a:ext cx="7429500" cy="3337560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4880,24 +5513,26 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:colOff>259080</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6271260" y="1874520"/>
-          <a:ext cx="1402080" cy="449580"/>
+          <a:off x="6271260" y="2282190"/>
+          <a:ext cx="1303020" cy="49530"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4922,15 +5557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4939,7 +5574,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7680960" y="1744980"/>
+          <a:off x="7574280" y="2156460"/>
           <a:ext cx="1333500" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4980,26 +5615,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="6111240" y="2727960"/>
-          <a:ext cx="1402080" cy="449580"/>
+        <a:xfrm flipH="1">
+          <a:off x="2838450" y="3162300"/>
+          <a:ext cx="689610" cy="2103120"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5023,16 +5660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5041,7 +5678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7528560" y="2606040"/>
+          <a:off x="2171700" y="5265420"/>
           <a:ext cx="1333500" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5511,6 +6148,553 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1737360" y="922020"/>
+          <a:ext cx="5090160" cy="3901440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="990600" y="601980"/>
+          <a:ext cx="716280" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6347460" y="1775460"/>
+          <a:ext cx="2834640" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="594360" y="1104900"/>
+          <a:ext cx="2865120" cy="899160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="579120" y="1630680"/>
+          <a:ext cx="2849880" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6377940" y="2811780"/>
+          <a:ext cx="2743200" cy="60960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6522720" y="3139440"/>
+          <a:ext cx="2567940" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6499860" y="3474720"/>
+          <a:ext cx="2613660" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4084320" y="4244340"/>
+          <a:ext cx="15240" cy="1341120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5059680" y="4229100"/>
+          <a:ext cx="1790700" cy="1363980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6332220" y="4221480"/>
+          <a:ext cx="1790700" cy="1363980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5588,24 +6772,26 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="6256020" y="1783080"/>
-          <a:ext cx="1402080" cy="449580"/>
+        <a:xfrm>
+          <a:off x="6256020" y="2247900"/>
+          <a:ext cx="1463040" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5630,15 +6816,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5647,7 +6833,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7665720" y="1653540"/>
+          <a:off x="7719060" y="2331720"/>
           <a:ext cx="1333500" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5688,26 +6874,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="6096000" y="2636520"/>
-          <a:ext cx="1402080" cy="449580"/>
+        <a:xfrm flipH="1">
+          <a:off x="2914650" y="3375660"/>
+          <a:ext cx="521970" cy="1805940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5731,16 +6919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5749,7 +6937,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7513320" y="2514600"/>
+          <a:off x="2247900" y="5181600"/>
           <a:ext cx="1333500" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6217,6 +7405,504 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1722120" y="906780"/>
+          <a:ext cx="4983480" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1005840" y="632460"/>
+          <a:ext cx="716280" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6309360" y="1760220"/>
+          <a:ext cx="2217420" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="586740" y="1097280"/>
+          <a:ext cx="2819400" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="586740" y="1615440"/>
+          <a:ext cx="2827020" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6301740" y="2804160"/>
+          <a:ext cx="2217420" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6393180" y="3147060"/>
+          <a:ext cx="2148840" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6362700" y="3413760"/>
+          <a:ext cx="2156460" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6019800" y="4175760"/>
+          <a:ext cx="259080" cy="1165860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4770120" y="4160520"/>
+          <a:ext cx="106680" cy="1188720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6707,6 +8393,367 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1684020" y="883920"/>
+          <a:ext cx="7528560" cy="4244340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="457200" y="777240"/>
+          <a:ext cx="1203960" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1013460" y="3307080"/>
+          <a:ext cx="899160" cy="118110"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5356860" y="365760"/>
+          <a:ext cx="22860" cy="1318260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="358140"/>
+          <a:ext cx="800100" cy="1318260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="8412480" y="365760"/>
+          <a:ext cx="556260" cy="1280160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1912620" y="1950720"/>
+          <a:ext cx="7063740" cy="2948940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7079,13 +9126,13 @@
     <row r="2" spans="1:7" s="36" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="38"/>
@@ -7096,11 +9143,11 @@
       <c r="B4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="40" t="s">
         <v>20</v>
       </c>
@@ -7112,26 +9159,26 @@
       <c r="B5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="40" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="105" t="str">
+      <c r="C6" s="106" t="str">
         <f>C5&amp;"_"&amp;"BlackBoxTestcase"&amp;"_"&amp;"v2.0"</f>
         <v>SE18_BlackBoxTestcase_v2.0</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
       <c r="F6" s="40" t="s">
         <v>24</v>
       </c>
@@ -7140,10 +9187,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="104"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
       <c r="F7" s="40" t="s">
         <v>25</v>
       </c>
@@ -7280,17 +9327,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3"/>
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="3" spans="4:4" ht="13.8">
+    <row r="2" spans="1:15" ht="13.8">
+      <c r="I2" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" s="115" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.8">
       <c r="D3" s="96" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="13.8">
+      <c r="A5" s="115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="13.8">
+      <c r="A20" s="115" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -7331,38 +9399,38 @@
       <c r="E2" s="72"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107" t="str">
+      <c r="C4" s="107"/>
+      <c r="D4" s="108" t="str">
         <f>D3</f>
         <v>MobilePhone Store Management</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="2:6" s="2" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="73"/>
@@ -7558,9 +9626,9 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:IV65536"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -7593,13 +9661,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -7611,13 +9679,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -7629,13 +9697,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -7654,10 +9722,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -7682,11 +9750,11 @@
         <f>COUNTIF(F$10:F$1025,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="111">
         <f>COUNTA(A10:A1010)</f>
         <v>18</v>
       </c>
-      <c r="F6" s="110"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -8216,8 +10284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A34"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -8250,13 +10318,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -8268,13 +10336,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -8286,13 +10354,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -8311,10 +10379,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -8339,11 +10407,11 @@
         <f>COUNTIF(F$10:F$1031,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="111">
         <f>COUNTA(A10:A1016)</f>
         <v>25</v>
       </c>
-      <c r="F6" s="110"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -9029,8 +11097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -9063,13 +11131,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -9081,13 +11149,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -9099,13 +11167,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -9124,10 +11192,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -9152,11 +11220,11 @@
         <f>COUNTIF(F$10:F$1028,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="111">
         <f>COUNTA(A10:A1013)</f>
         <v>22</v>
       </c>
-      <c r="F6" s="110"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -9789,8 +11857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -9823,13 +11891,13 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="12"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9"/>
@@ -9841,13 +11909,13 @@
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2"/>
       <c r="I3" s="9"/>
@@ -9859,13 +11927,13 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="12"/>
       <c r="H4" s="2"/>
       <c r="I4" s="9"/>
@@ -9884,10 +11952,10 @@
       <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="113" t="s">
+      <c r="E5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="113"/>
+      <c r="F5" s="114"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="19"/>
@@ -9912,11 +11980,11 @@
         <f>COUNTIF(F$10:F$1010,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="110">
+      <c r="E6" s="111">
         <f>COUNTA(A10:A995)</f>
         <v>10</v>
       </c>
-      <c r="F6" s="110"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
@@ -9982,7 +12050,7 @@
       <c r="B10" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="102" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="94" t="s">
@@ -10003,7 +12071,7 @@
       <c r="B11" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="102" t="s">
         <v>225</v>
       </c>
       <c r="D11" s="92" t="s">
@@ -10024,7 +12092,7 @@
       <c r="B12" s="99" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="102" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="95" t="s">
@@ -10045,7 +12113,7 @@
       <c r="B13" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="102" t="s">
         <v>226</v>
       </c>
       <c r="D13" s="92" t="s">
@@ -10066,7 +12134,7 @@
       <c r="B14" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="102" t="s">
         <v>226</v>
       </c>
       <c r="D14" s="95" t="s">
@@ -10087,7 +12155,7 @@
       <c r="B15" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="102" t="s">
         <v>227</v>
       </c>
       <c r="D15" s="92" t="s">
@@ -10108,7 +12176,7 @@
       <c r="B16" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="102" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="95" t="s">
@@ -10129,7 +12197,7 @@
       <c r="B17" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="102" t="s">
         <v>227</v>
       </c>
       <c r="D17" s="95" t="s">
@@ -10150,7 +12218,7 @@
       <c r="B18" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="102" t="s">
         <v>227</v>
       </c>
       <c r="D18" s="95" t="s">
@@ -10171,7 +12239,7 @@
       <c r="B19" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="102" t="s">
         <v>227</v>
       </c>
       <c r="D19" s="95" t="s">
@@ -10269,34 +12337,128 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2"/>
+  <dimension ref="A2:R26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="2" spans="4:4" ht="13.8">
+    <row r="2" spans="1:18" ht="13.8">
       <c r="D2" s="96"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.8">
+      <c r="J3" s="115" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="13.8">
+      <c r="A4" s="115" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="13.8">
+      <c r="A9" s="115" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.8">
+      <c r="A14" s="115" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13.8">
+      <c r="R16" s="115" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="13.8">
+      <c r="A18" s="115" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="13.8">
+      <c r="Q21" s="115" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="13.8">
+      <c r="A22" s="115" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="13.8">
+      <c r="A26" s="115" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:D4"/>
+  <dimension ref="A3:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="3" spans="4:4" ht="13.8">
+    <row r="3" spans="1:16" ht="13.8">
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="4:4" ht="13.8">
+    <row r="4" spans="1:16" ht="13.8">
+      <c r="A4" s="115" t="s">
+        <v>262</v>
+      </c>
       <c r="D4" s="96"/>
+    </row>
+    <row r="7" spans="1:16" ht="13.8">
+      <c r="A7" s="115" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="13.8">
+      <c r="A10" s="115" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.8">
+      <c r="P11" s="115" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="16:16" ht="13.8">
+      <c r="P17" s="115" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="16:16" ht="13.8">
+      <c r="P19" s="115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="16:16" ht="13.8">
+      <c r="P21" s="115" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="7:14" ht="13.8">
+      <c r="G34" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="N34" s="115" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10306,19 +12468,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:D4"/>
+  <dimension ref="A3:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="3" spans="4:4" ht="13.8">
+    <row r="3" spans="1:15" ht="13.8">
       <c r="D3" s="96"/>
     </row>
-    <row r="4" spans="4:4" ht="13.8">
+    <row r="4" spans="1:15" ht="13.8">
+      <c r="A4" s="115" t="s">
+        <v>267</v>
+      </c>
       <c r="D4" s="96"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.8">
+      <c r="A7" s="115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13.8">
+      <c r="A10" s="115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="13.8">
+      <c r="O11" s="115" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" ht="13.8">
+      <c r="O17" s="115" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15" ht="13.8">
+      <c r="O19" s="115" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="15:15" ht="13.8">
+      <c r="O21" s="115" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" ht="13.8">
+      <c r="H33" s="115" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" s="115" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
